--- a/extdata/toyFiles/FROC/bad/frocCrNonCharInModalityID.xlsx
+++ b/extdata/toyFiles/FROC/bad/frocCrNonCharInModalityID.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/PyJafroc/extdata/toyFiles/FROC/bad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894ED41D-A1F7-C443-A023-BCB6D98AE851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B9ED61-A782-B246-9F68-6D4E54CA11FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="2520" windowWidth="10980" windowHeight="10640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6020" yWindow="2520" windowWidth="10980" windowHeight="10640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TP" sheetId="3" r:id="rId1"/>
-    <sheet name="FP" sheetId="2" r:id="rId2"/>
+    <sheet name="LL" sheetId="3" r:id="rId1"/>
+    <sheet name="NL" sheetId="2" r:id="rId2"/>
     <sheet name="TRUTH" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="9">
   <si>
     <t>CaseID</t>
   </si>
@@ -52,9 +52,6 @@
     <t>ModalityID</t>
   </si>
   <si>
-    <t>FP_Rating</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -64,22 +61,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>TP_Rating</t>
-  </si>
-  <si>
-    <t>0,1,2</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>Paradigm</t>
-  </si>
-  <si>
-    <t>FROC</t>
-  </si>
-  <si>
-    <t>FCTRL</t>
+    <t>NLRating</t>
   </si>
 </sst>
 </file>
@@ -179,7 +161,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,9 +170,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -583,7 +562,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -606,19 +585,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M1">
         <f ca="1">RAND()-0.5</f>
-        <v>0.2805121459704859</v>
+        <v>-0.23442898289487224</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>70</v>
@@ -631,19 +610,19 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J5" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
-        <v>5.07</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M13" ca="1" si="1">RAND()-0.5</f>
-        <v>0.36648655465019475</v>
+        <v>-0.15597442436220665</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -656,19 +635,19 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8899999999999997</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15485848944997305</v>
+        <v>-3.6270911724216259E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>71</v>
@@ -681,19 +660,19 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.17</v>
+        <v>2.79</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22408222672381917</v>
+        <v>-0.44028113829625204</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>72</v>
@@ -706,19 +685,19 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14519075556394956</v>
+        <v>-0.11704521418125191</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>73</v>
@@ -731,19 +710,19 @@
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J11" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+E6, 2)</f>
-        <v>4.82</v>
+        <v>5.09</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19725868230736221</v>
+        <v>2.274504267024724E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>73</v>
@@ -756,19 +735,19 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="2"/>
-        <v>5.23</v>
+        <v>5.16</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38064851860590132</v>
+        <v>0.33082790409757845</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>74</v>
@@ -781,19 +760,19 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="2"/>
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10297586593686325</v>
+        <v>-0.26058776437944864</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>70</v>
@@ -806,19 +785,19 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="2"/>
-        <v>5.27</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23013493670857943</v>
+        <v>-0.37043347523604153</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>71</v>
@@ -831,19 +810,19 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="2"/>
-        <v>3.26</v>
+        <v>3.43</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6866585795714659E-2</v>
+        <v>0.19042607526966226</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>72</v>
@@ -856,19 +835,19 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8</v>
+        <v>4.76</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40006731487183378</v>
+        <v>-0.1865855033260474</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>72</v>
@@ -881,15 +860,15 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.29238806019616603</v>
+        <v>0.37349785609082287</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>72</v>
@@ -902,15 +881,15 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25536897812670334</v>
+        <v>-0.45079604065839818</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>73</v>
@@ -924,10 +903,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1">
         <v>74</v>
@@ -940,15 +919,15 @@
       </c>
       <c r="M15">
         <f ca="1">AVERAGE(M1:M13)</f>
-        <v>0.19015869188578577</v>
+        <v>-0.10268512130234031</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>70</v>
@@ -962,10 +941,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>71</v>
@@ -979,10 +958,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>72</v>
@@ -996,10 +975,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1">
         <v>73</v>
@@ -1013,10 +992,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
         <v>74</v>
@@ -1030,10 +1009,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
         <v>70</v>
@@ -1047,10 +1026,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1">
         <v>71</v>
@@ -1064,10 +1043,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1">
         <v>72</v>
@@ -1081,10 +1060,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1">
         <v>73</v>
@@ -1098,10 +1077,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1">
         <v>74</v>
@@ -1115,10 +1094,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1">
         <v>70</v>
@@ -1132,10 +1111,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1">
         <v>71</v>
@@ -1149,10 +1128,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1">
         <v>72</v>
@@ -1166,10 +1145,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1">
         <v>73</v>
@@ -1183,10 +1162,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1">
         <v>74</v>
@@ -1200,10 +1179,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1">
         <v>70</v>
@@ -1217,10 +1196,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1">
         <v>71</v>
@@ -1247,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1268,15 +1247,15 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1286,15 +1265,15 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J11" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+D2, 2)</f>
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1304,15 +1283,15 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1322,15 +1301,15 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.11</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -1340,15 +1319,15 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1358,15 +1337,15 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.99</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1376,15 +1355,15 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.02</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1395,10 +1374,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1408,15 +1387,15 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.11</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1426,15 +1405,15 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.04</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -1444,15 +1423,15 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.79</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -1463,10 +1442,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1477,10 +1456,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -1491,10 +1470,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
         <v>74</v>
@@ -1505,10 +1484,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1">
         <v>73</v>
@@ -1519,10 +1498,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -1533,10 +1512,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1547,10 +1526,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -1561,10 +1540,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1575,10 +1554,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
         <v>71</v>
@@ -1589,10 +1568,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1">
         <v>71</v>
@@ -1603,10 +1582,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1">
         <v>72</v>
@@ -1628,21 +1607,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1652,17 +1628,8 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1672,17 +1639,8 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1692,17 +1650,8 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1712,15 +1661,8 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>70</v>
       </c>
@@ -1730,15 +1672,8 @@
       <c r="C5" s="3">
         <v>0.3</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>70</v>
       </c>
@@ -1748,15 +1683,8 @@
       <c r="C6" s="3">
         <v>0.7</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>71</v>
       </c>
@@ -1766,15 +1694,8 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>72</v>
       </c>
@@ -1784,15 +1705,8 @@
       <c r="C8" s="2">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>72</v>
       </c>
@@ -1802,15 +1716,8 @@
       <c r="C9" s="2">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>72</v>
       </c>
@@ -1820,15 +1727,8 @@
       <c r="C10" s="2">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>73</v>
       </c>
@@ -1838,15 +1738,8 @@
       <c r="C11" s="3">
         <v>0.1</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>73</v>
       </c>
@@ -1856,15 +1749,8 @@
       <c r="C12" s="3">
         <v>0.9</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>74</v>
       </c>
@@ -1874,104 +1760,71 @@
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
